--- a/REQUISITOS.xlsx
+++ b/REQUISITOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viviana\Documents\Universidad\9° Semestre\Software I\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\OneDrive\Desktop\semestre9\sw1\Software1Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CD159D-C77D-4D12-BA10-5A6427896669}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5861D610-2EEB-4C74-AC1D-7F95478E58F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{6829800A-0A81-455E-82C9-6AF7371CBC8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6829800A-0A81-455E-82C9-6AF7371CBC8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos Generales" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -330,8 +330,36 @@
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{825746F0-68B7-4029-B9F9-2774E29B62A5}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -642,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AB437F-9B5C-4768-BB35-CCFBE3526F21}">
   <dimension ref="C1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1056,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67B808F-BB88-4F41-9F0C-8BCC23F0472D}">
   <dimension ref="F2:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
